--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1873896.098866327</v>
+        <v>1818118.576723722</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111176</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205212</v>
+        <v>11813519.27205211</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6523716.294868137</v>
+        <v>6523716.294868136</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>36.21593518981624</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>125.5314208766508</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>15.37500968222843</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>88.93311775391584</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1031,7 +1031,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>212.9969655991517</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>222.3396163656985</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>23.63437501744366</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>58.57279613059754</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>182.082898998141</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>315.0836539862424</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>84.85302165305937</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>92.99816148657736</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>93.74303275321121</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.090629331563</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>150.1020814900483</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1694,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>74.64347110467804</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>60.96145300001422</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356406</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>263.5763095174813</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>53.43612006937681</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>71.38756247247206</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>32.90473339009649</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
@@ -1985,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>376.8808099557201</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13.62817948183661</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>148.6038782652535</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>78.54202280713804</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
@@ -2216,19 +2216,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>42.44098301142828</v>
       </c>
     </row>
     <row r="22">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>180.0783550618347</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>86.65804289016231</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>47.01274017955617</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>154.6417024980804</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2405,19 +2405,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>213.4278643681134</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>12.35168551462429</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>315.1149558763058</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>251.3956371273673</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>204.4858658649334</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>145.6674229028285</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>104.1189927826352</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>71.11062913723907</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>39.7860196869964</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>90.04895412647421</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>11.474868929696</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>79.45096555843269</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>380.3849069482931</v>
       </c>
     </row>
     <row r="33">
@@ -3113,22 +3113,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>86.74954959910107</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>94.71041441557992</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3167,7 +3167,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>73.36175976093791</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>73.36175976093791</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>198.8954579313021</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>151.524094763003</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3353,19 +3353,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>26.13668042021428</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>15.13518083054779</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>157.7727335375553</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>157.7727335375555</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>217.5440692862963</v>
       </c>
       <c r="F38" t="n">
-        <v>388.5967257682235</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
@@ -3562,13 +3562,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>183.5981256110423</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>48.98427584501901</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>35.76004691138424</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>86.65804289016209</v>
+        <v>193.36627486176</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>22.57235543134956</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3827,19 +3827,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>6.256868732032098</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>99.78974769572875</v>
       </c>
       <c r="D43" t="n">
-        <v>39.19479062707025</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>148.4154583122771</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>91.11625179762358</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,22 +4058,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>116.8029992974235</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
@@ -4118,13 +4118,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>134.5658975014682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>12.35168551462426</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>73.36175976093789</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C2" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D2" t="n">
-        <v>518.2486856454962</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F2" t="n">
+        <v>290.2572196227447</v>
+      </c>
+      <c r="G2" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="G2" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4360,22 +4360,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y2" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>411.587349213889</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="C3" t="n">
-        <v>237.1343199327619</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="D3" t="n">
-        <v>237.1343199327619</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>35.56558857333019</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W3" t="n">
-        <v>619.4388494194218</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="X3" t="n">
-        <v>411.587349213889</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="Y3" t="n">
-        <v>411.587349213889</v>
+        <v>182.1001465464452</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D5" t="n">
-        <v>710.516763498309</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>487.2836868729568</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C6" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D6" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="V6" t="n">
-        <v>487.2836868729568</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="W6" t="n">
-        <v>487.2836868729568</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="X6" t="n">
-        <v>487.2836868729568</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y6" t="n">
-        <v>487.2836868729568</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>487.2836868729568</v>
+        <v>43.90838184122435</v>
       </c>
       <c r="C9" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>338.3492772117056</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X9" t="n">
-        <v>487.2836868729568</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="Y9" t="n">
-        <v>487.2836868729568</v>
+        <v>212.1237188612924</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>626.2214176739374</v>
+        <v>800.5649960805455</v>
       </c>
       <c r="C11" t="n">
-        <v>626.2214176739374</v>
+        <v>800.5649960805455</v>
       </c>
       <c r="D11" t="n">
-        <v>626.2214176739374</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E11" t="n">
-        <v>626.2214176739374</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F11" t="n">
-        <v>216.3814459598946</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G11" t="n">
-        <v>216.3814459598946</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H11" t="n">
-        <v>216.3814459598946</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U11" t="n">
-        <v>1369.129404919863</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V11" t="n">
-        <v>1369.129404919863</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W11" t="n">
-        <v>1016.360749649749</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="X11" t="n">
-        <v>1016.360749649749</v>
+        <v>1190.704328056357</v>
       </c>
       <c r="Y11" t="n">
-        <v>626.2214176739374</v>
+        <v>800.5649960805455</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>307.7983832070338</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N12" t="n">
-        <v>1335.799553443795</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
@@ -5150,22 +5150,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U12" t="n">
-        <v>1173.163483952</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V12" t="n">
-        <v>938.0113757202573</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W12" t="n">
-        <v>683.7740189920557</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X12" t="n">
-        <v>683.7740189920557</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y12" t="n">
-        <v>476.0137202271018</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5220,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="R13" t="n">
-        <v>296.5701361642185</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="S13" t="n">
-        <v>296.5701361642185</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="T13" t="n">
-        <v>296.5701361642185</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U13" t="n">
-        <v>296.5701361642185</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V13" t="n">
-        <v>296.5701361642185</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.6215776098158</v>
+        <v>373.7336196997706</v>
       </c>
       <c r="C14" t="n">
-        <v>239.6215776098158</v>
+        <v>373.7336196997706</v>
       </c>
       <c r="D14" t="n">
-        <v>239.6215776098158</v>
+        <v>373.7336196997706</v>
       </c>
       <c r="E14" t="n">
-        <v>239.6215776098158</v>
+        <v>373.7336196997706</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975219</v>
+        <v>373.7336196997706</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U14" t="n">
-        <v>1369.129404919863</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="V14" t="n">
-        <v>1369.129404919863</v>
+        <v>726.5022749698848</v>
       </c>
       <c r="W14" t="n">
-        <v>1016.360749649749</v>
+        <v>373.7336196997706</v>
       </c>
       <c r="X14" t="n">
-        <v>1016.360749649749</v>
+        <v>373.7336196997706</v>
       </c>
       <c r="Y14" t="n">
-        <v>626.2214176739376</v>
+        <v>373.7336196997706</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>843.1255275138191</v>
+        <v>494.2591379429603</v>
       </c>
       <c r="C15" t="n">
-        <v>668.6724982326921</v>
+        <v>319.8061086618332</v>
       </c>
       <c r="D15" t="n">
-        <v>519.7380885714408</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E15" t="n">
-        <v>360.5006335659854</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M15" t="n">
-        <v>758.3581127497702</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N15" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O15" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1547.568842427328</v>
       </c>
       <c r="S15" t="n">
-        <v>1541.568727888341</v>
+        <v>1380.066607385494</v>
       </c>
       <c r="T15" t="n">
-        <v>1340.665718993834</v>
+        <v>1380.066607385494</v>
       </c>
       <c r="U15" t="n">
-        <v>1112.463051531313</v>
+        <v>1151.863939922973</v>
       </c>
       <c r="V15" t="n">
-        <v>1112.463051531313</v>
+        <v>916.7118316912299</v>
       </c>
       <c r="W15" t="n">
-        <v>1112.463051531313</v>
+        <v>662.4744749630283</v>
       </c>
       <c r="X15" t="n">
-        <v>1050.885826278773</v>
+        <v>662.4744749630283</v>
       </c>
       <c r="Y15" t="n">
-        <v>843.1255275138191</v>
+        <v>662.4744749630283</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F16" t="n">
         <v>32.45932575975219</v>
@@ -5439,7 +5439,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5457,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>298.6980222420565</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="C17" t="n">
-        <v>298.6980222420565</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="D17" t="n">
-        <v>298.6980222420565</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="E17" t="n">
-        <v>32.45932575975218</v>
+        <v>906.1151480457941</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975218</v>
+        <v>496.2751763317513</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975218</v>
+        <v>86.43520461770856</v>
       </c>
       <c r="H17" t="n">
         <v>32.45932575975218</v>
@@ -5548,19 +5548,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V17" t="n">
-        <v>1038.066517576292</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W17" t="n">
-        <v>685.2978623061783</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="X17" t="n">
-        <v>685.2978623061783</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="Y17" t="n">
-        <v>685.2978623061783</v>
+        <v>1291.903400644038</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>222.0882603251556</v>
+        <v>240.1494594753201</v>
       </c>
       <c r="C18" t="n">
-        <v>222.0882603251556</v>
+        <v>65.69643019419308</v>
       </c>
       <c r="D18" t="n">
-        <v>222.0882603251556</v>
+        <v>65.69643019419308</v>
       </c>
       <c r="E18" t="n">
-        <v>222.0882603251556</v>
+        <v>65.69643019419308</v>
       </c>
       <c r="F18" t="n">
-        <v>222.0882603251556</v>
+        <v>65.69643019419308</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>147.3709770270845</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O18" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
@@ -5621,25 +5621,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894781</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577354</v>
+        <v>1078.213952194076</v>
       </c>
       <c r="W18" t="n">
-        <v>709.8087082577354</v>
+        <v>823.9765954658749</v>
       </c>
       <c r="X18" t="n">
-        <v>501.9572080522025</v>
+        <v>616.1250952603421</v>
       </c>
       <c r="Y18" t="n">
-        <v>294.1969092872486</v>
+        <v>408.3647964953881</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="I19" t="n">
         <v>32.45932575975218</v>
@@ -5706,19 +5706,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V19" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W19" t="n">
-        <v>260.4488766577695</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>982.5295648557417</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C20" t="n">
-        <v>982.5295648557417</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D20" t="n">
-        <v>982.5295648557417</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E20" t="n">
-        <v>982.5295648557417</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F20" t="n">
-        <v>968.7637269953007</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G20" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5785,19 +5785,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X20" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y20" t="n">
-        <v>1369.129404919863</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>815.2070562058072</v>
+        <v>286.2477316137459</v>
       </c>
       <c r="C21" t="n">
-        <v>815.2070562058072</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D21" t="n">
-        <v>666.272646544556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E21" t="n">
-        <v>507.0351915391004</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H21" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L21" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>934.1153971668621</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N21" t="n">
         <v>1057.709031609043</v>
@@ -5855,28 +5855,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U21" t="n">
-        <v>1173.163483952</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V21" t="n">
-        <v>1173.163483952</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W21" t="n">
-        <v>1173.163483952</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X21" t="n">
-        <v>965.3119837464674</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y21" t="n">
-        <v>965.3119837464674</v>
+        <v>286.2477316137459</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5943,19 +5943,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>72.05002336285366</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="V22" t="n">
-        <v>72.05002336285366</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="W22" t="n">
-        <v>72.05002336285366</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576625</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32.45932575975219</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C23" t="n">
-        <v>32.45932575975219</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975219</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975219</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975219</v>
@@ -5989,13 +5989,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M23" t="n">
         <v>838.8947028941457</v>
@@ -6013,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V23" t="n">
-        <v>1535.43291133088</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="W23" t="n">
-        <v>1182.664256060766</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="X23" t="n">
-        <v>809.1984977996857</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="Y23" t="n">
-        <v>419.059165823874</v>
+        <v>1238.739109251959</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>989.6600854869342</v>
+        <v>502.3813226752455</v>
       </c>
       <c r="C24" t="n">
-        <v>815.2070562058072</v>
+        <v>327.9282933941185</v>
       </c>
       <c r="D24" t="n">
-        <v>666.272646544556</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E24" t="n">
-        <v>507.0351915391004</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F24" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G24" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L24" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M24" t="n">
-        <v>934.1153971668621</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N24" t="n">
-        <v>1299.952780813051</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O24" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
         <v>1622.966287987609</v>
@@ -6092,28 +6092,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U24" t="n">
-        <v>1145.863825383985</v>
+        <v>1407.382586605677</v>
       </c>
       <c r="V24" t="n">
-        <v>1145.863825383985</v>
+        <v>1172.230478373934</v>
       </c>
       <c r="W24" t="n">
-        <v>1145.863825383985</v>
+        <v>917.9931216457323</v>
       </c>
       <c r="X24" t="n">
-        <v>1145.863825383985</v>
+        <v>710.1416214401995</v>
       </c>
       <c r="Y24" t="n">
-        <v>1145.863825383985</v>
+        <v>502.3813226752455</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.2466016029501</v>
+        <v>140.45402245942</v>
       </c>
       <c r="C25" t="n">
-        <v>361.2466016029501</v>
+        <v>140.45402245942</v>
       </c>
       <c r="D25" t="n">
-        <v>361.2466016029501</v>
+        <v>140.45402245942</v>
       </c>
       <c r="E25" t="n">
-        <v>348.7701515881781</v>
+        <v>140.45402245942</v>
       </c>
       <c r="F25" t="n">
-        <v>201.8802040902677</v>
+        <v>140.45402245942</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975219</v>
+        <v>140.45402245942</v>
       </c>
       <c r="H25" t="n">
         <v>32.45932575975219</v>
@@ -6192,7 +6192,7 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.2466016029501</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>759.6875413069145</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="C26" t="n">
-        <v>390.7250243665027</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>760.5972327023867</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>350.7572609883439</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975218</v>
@@ -6226,16 +6226,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K26" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6259,19 +6259,19 @@
         <v>1400.222368368377</v>
       </c>
       <c r="U26" t="n">
-        <v>1400.222368368377</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V26" t="n">
-        <v>1146.287381371036</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="W26" t="n">
-        <v>1146.287381371036</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="X26" t="n">
-        <v>1146.287381371036</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="Y26" t="n">
-        <v>1146.287381371036</v>
+        <v>1146.385485300631</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>704.7131542729894</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C27" t="n">
-        <v>530.2601249918624</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D27" t="n">
-        <v>381.3257153306112</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E27" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F27" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
@@ -6329,28 +6329,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1541.568727888341</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T27" t="n">
-        <v>1541.568727888341</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U27" t="n">
-        <v>1541.568727888341</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V27" t="n">
-        <v>1335.017348226792</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W27" t="n">
-        <v>1080.77999149859</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X27" t="n">
-        <v>872.9284912930575</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y27" t="n">
-        <v>872.9284912930575</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1441.31782315737</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>1441.31782315737</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>1441.31782315737</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>1441.31782315737</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>1441.31782315737</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.966287987609</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="X28" t="n">
-        <v>1622.966287987609</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.5925424806035</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="C29" t="n">
-        <v>137.6300255401918</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="D29" t="n">
-        <v>32.45932575975218</v>
+        <v>104.2882440801957</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975218</v>
+        <v>104.2882440801957</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975218</v>
+        <v>104.2882440801957</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>104.2882440801957</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975218</v>
+        <v>104.2882440801957</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K29" t="n">
         <v>247.3580469011318</v>
@@ -6472,7 +6472,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6493,22 +6493,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.966287987609</v>
+        <v>815.3225979570603</v>
       </c>
       <c r="W29" t="n">
-        <v>1270.197632717495</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="X29" t="n">
-        <v>896.7318744564152</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.5925424806035</v>
+        <v>462.5539426869462</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>72.64722443348592</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975218</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975218</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G30" t="n">
         <v>32.45932575975218</v>
@@ -6545,13 +6545,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L30" t="n">
-        <v>505.948365158507</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M30" t="n">
-        <v>905.36650176277</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N30" t="n">
         <v>1057.709031609043</v>
@@ -6569,25 +6569,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1374.066492846507</v>
+        <v>1450.61018836665</v>
       </c>
       <c r="T30" t="n">
-        <v>1374.066492846507</v>
+        <v>1450.61018836665</v>
       </c>
       <c r="U30" t="n">
-        <v>1145.863825383985</v>
+        <v>1222.407520904128</v>
       </c>
       <c r="V30" t="n">
-        <v>910.7117171522423</v>
+        <v>987.2554126723853</v>
       </c>
       <c r="W30" t="n">
-        <v>656.4743604240407</v>
+        <v>733.0180559441837</v>
       </c>
       <c r="X30" t="n">
-        <v>448.6228602185079</v>
+        <v>525.1665557386509</v>
       </c>
       <c r="Y30" t="n">
-        <v>240.862561453554</v>
+        <v>317.4062569736969</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="D31" t="n">
         <v>32.45932575975218</v>
@@ -6645,28 +6645,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="V31" t="n">
-        <v>361.2466016029501</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="W31" t="n">
-        <v>361.2466016029501</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="X31" t="n">
-        <v>133.2570507049327</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>182.5759651720879</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>779.107697186644</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C32" t="n">
-        <v>779.107697186644</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D32" t="n">
-        <v>779.107697186644</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E32" t="n">
-        <v>779.107697186644</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F32" t="n">
-        <v>779.107697186644</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G32" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975218</v>
@@ -6739,13 +6739,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W32" t="n">
-        <v>1542.712787423536</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X32" t="n">
-        <v>1169.247029162456</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y32" t="n">
-        <v>779.107697186644</v>
+        <v>1238.739109251959</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>111.7947023326189</v>
+        <v>564.2695196550121</v>
       </c>
       <c r="C33" t="n">
-        <v>111.7947023326189</v>
+        <v>564.2695196550121</v>
       </c>
       <c r="D33" t="n">
-        <v>111.7947023326189</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E33" t="n">
-        <v>111.7947023326189</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F33" t="n">
-        <v>111.7947023326189</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975218</v>
@@ -6782,49 +6782,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>505.948365158507</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M33" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1445.901642620078</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1244.998633725572</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U33" t="n">
-        <v>1016.79596626305</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V33" t="n">
-        <v>781.6438580313072</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="W33" t="n">
-        <v>527.4065013031056</v>
+        <v>772.1210198605449</v>
       </c>
       <c r="X33" t="n">
-        <v>319.5550010975728</v>
+        <v>564.2695196550121</v>
       </c>
       <c r="Y33" t="n">
-        <v>111.7947023326189</v>
+        <v>564.2695196550121</v>
       </c>
     </row>
     <row r="34">
@@ -6849,10 +6849,10 @@
         <v>106.5621133970632</v>
       </c>
       <c r="G34" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
         <v>32.45932575975218</v>
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>571.3022195327469</v>
+        <v>738.230242413013</v>
       </c>
       <c r="C35" t="n">
-        <v>571.3022195327469</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D35" t="n">
-        <v>571.3022195327469</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E35" t="n">
-        <v>185.5139669345027</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F35" t="n">
-        <v>185.5139669345027</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G35" t="n">
-        <v>185.5139669345027</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6961,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1255.133762146432</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>924.0708748028611</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W35" t="n">
-        <v>571.3022195327469</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X35" t="n">
-        <v>571.3022195327469</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="Y35" t="n">
-        <v>571.3022195327469</v>
+        <v>939.1347453739243</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>382.2474519952762</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C36" t="n">
-        <v>207.7944227141492</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D36" t="n">
-        <v>58.86001305289793</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E36" t="n">
-        <v>58.86001305289793</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>729.6092173456783</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N36" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O36" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1455.464052945775</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U36" t="n">
-        <v>1455.464052945775</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="V36" t="n">
-        <v>1220.311944714033</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="W36" t="n">
-        <v>966.0745879858309</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="X36" t="n">
-        <v>758.2230877802981</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="Y36" t="n">
-        <v>550.4627890153442</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1622.966287987609</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="C37" t="n">
-        <v>1463.599890474927</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D37" t="n">
-        <v>1463.599890474927</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E37" t="n">
-        <v>1463.599890474927</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F37" t="n">
-        <v>1463.599890474927</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.966287987609</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.966287987609</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="X37" t="n">
-        <v>1622.966287987609</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="Y37" t="n">
-        <v>1622.966287987609</v>
+        <v>201.8802040902677</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>834.8212426942227</v>
+        <v>441.8568396959807</v>
       </c>
       <c r="C38" t="n">
-        <v>834.8212426942227</v>
+        <v>441.8568396959807</v>
       </c>
       <c r="D38" t="n">
-        <v>834.8212426942227</v>
+        <v>441.8568396959807</v>
       </c>
       <c r="E38" t="n">
-        <v>834.8212426942227</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F38" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1088.658125761969</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U38" t="n">
-        <v>834.8212426942227</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V38" t="n">
-        <v>834.8212426942227</v>
+        <v>815.3225979570606</v>
       </c>
       <c r="W38" t="n">
-        <v>834.8212426942227</v>
+        <v>815.3225979570606</v>
       </c>
       <c r="X38" t="n">
-        <v>834.8212426942227</v>
+        <v>441.8568396959807</v>
       </c>
       <c r="Y38" t="n">
-        <v>834.8212426942227</v>
+        <v>441.8568396959807</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>989.6600854869342</v>
+        <v>653.4965929484157</v>
       </c>
       <c r="C39" t="n">
-        <v>815.2070562058072</v>
+        <v>479.0435636672887</v>
       </c>
       <c r="D39" t="n">
-        <v>666.272646544556</v>
+        <v>330.1091540060374</v>
       </c>
       <c r="E39" t="n">
-        <v>507.0351915391004</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497702</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N39" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O39" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
@@ -7280,25 +7280,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U39" t="n">
-        <v>1622.966287987609</v>
+        <v>1069.108391918902</v>
       </c>
       <c r="V39" t="n">
-        <v>1622.966287987609</v>
+        <v>1069.108391918902</v>
       </c>
       <c r="W39" t="n">
-        <v>1573.487221477489</v>
+        <v>1069.108391918902</v>
       </c>
       <c r="X39" t="n">
-        <v>1365.635721271956</v>
+        <v>861.2568917133697</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.875422507002</v>
+        <v>653.4965929484157</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>1522.168563042429</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V40" t="n">
-        <v>1522.168563042429</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W40" t="n">
-        <v>1522.168563042429</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="X40" t="n">
-        <v>1294.179012144411</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.45932575975218</v>
+        <v>787.2100952984081</v>
       </c>
       <c r="C41" t="n">
-        <v>32.45932575975218</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975218</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E41" t="n">
         <v>32.45932575975218</v>
@@ -7438,25 +7438,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1535.43291133088</v>
+        <v>1427.646818430276</v>
       </c>
       <c r="T41" t="n">
-        <v>1535.43291133088</v>
+        <v>1427.646818430276</v>
       </c>
       <c r="U41" t="n">
-        <v>1535.43291133088</v>
+        <v>1173.80993536253</v>
       </c>
       <c r="V41" t="n">
-        <v>1535.43291133088</v>
+        <v>1173.80993536253</v>
       </c>
       <c r="W41" t="n">
-        <v>1182.664256060766</v>
+        <v>1173.80993536253</v>
       </c>
       <c r="X41" t="n">
-        <v>809.1984977996857</v>
+        <v>1173.80993536253</v>
       </c>
       <c r="Y41" t="n">
-        <v>419.059165823874</v>
+        <v>1173.80993536253</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>989.6600854869342</v>
+        <v>502.3813226752454</v>
       </c>
       <c r="C42" t="n">
-        <v>815.2070562058072</v>
+        <v>327.9282933941184</v>
       </c>
       <c r="D42" t="n">
-        <v>666.272646544556</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E42" t="n">
-        <v>507.0351915391004</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F42" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
@@ -7493,13 +7493,13 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>147.3709770270845</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313474</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N42" t="n">
         <v>948.4732699082806</v>
@@ -7514,28 +7514,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.464052945775</v>
+        <v>1367.746423420212</v>
       </c>
       <c r="V42" t="n">
-        <v>1220.311944714032</v>
+        <v>1132.594315188469</v>
       </c>
       <c r="W42" t="n">
-        <v>1220.311944714032</v>
+        <v>878.3569584602674</v>
       </c>
       <c r="X42" t="n">
-        <v>1012.460444508499</v>
+        <v>878.3569584602674</v>
       </c>
       <c r="Y42" t="n">
-        <v>1012.460444508499</v>
+        <v>670.5966596953135</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1333.769709747513</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="C43" t="n">
-        <v>1333.769709747513</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>1333.769709747513</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>1333.769709747513</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>1333.769709747513</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.769709747513</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1333.769709747513</v>
+        <v>133.2570507049327</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>401.4218427001639</v>
+        <v>551.3364470559993</v>
       </c>
       <c r="C44" t="n">
-        <v>32.45932575975218</v>
+        <v>182.3739301155876</v>
       </c>
       <c r="D44" t="n">
-        <v>32.45932575975218</v>
+        <v>182.3739301155876</v>
       </c>
       <c r="E44" t="n">
         <v>32.45932575975218</v>
@@ -7672,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T44" t="n">
-        <v>1530.929670010212</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U44" t="n">
-        <v>1530.929670010212</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V44" t="n">
-        <v>1530.929670010212</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W44" t="n">
-        <v>1178.161014740097</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X44" t="n">
-        <v>1178.161014740097</v>
+        <v>937.9362871201211</v>
       </c>
       <c r="Y44" t="n">
-        <v>788.0216827642857</v>
+        <v>937.9362871201211</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>111.7947023326189</v>
+        <v>958.708503398838</v>
       </c>
       <c r="C45" t="n">
-        <v>111.7947023326189</v>
+        <v>784.2554741177111</v>
       </c>
       <c r="D45" t="n">
-        <v>111.7947023326189</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E45" t="n">
-        <v>111.7947023326189</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F45" t="n">
-        <v>111.7947023326189</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G45" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H45" t="n">
         <v>111.7947023326189</v>
@@ -7727,22 +7727,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9399761455072</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M45" t="n">
-        <v>758.3581127497702</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N45" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
         <v>1513.730526286846</v>
@@ -7751,28 +7751,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894781</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V45" t="n">
-        <v>709.8087082577354</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W45" t="n">
-        <v>455.5713515295337</v>
+        <v>958.708503398838</v>
       </c>
       <c r="X45" t="n">
-        <v>247.7198513240009</v>
+        <v>958.708503398838</v>
       </c>
       <c r="Y45" t="n">
-        <v>111.7947023326189</v>
+        <v>958.708503398838</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F46" t="n">
-        <v>214.3566541050397</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G46" t="n">
-        <v>44.93577577452416</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H46" t="n">
-        <v>44.93577577452416</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I46" t="n">
         <v>32.45932575975218</v>
@@ -7833,25 +7833,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,10 +8537,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,13 +8783,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>112.9628022719299</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.7959972113198</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>92.88803957954757</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>215.0958621574524</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>186.1735738748421</v>
+        <v>89.94082829865957</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>174.1879045256798</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>418.8785602873039</v>
+        <v>380.7598033349566</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>203.2271928126415</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10430,13 +10430,13 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M33" t="n">
-        <v>103.505681799068</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>455.0874215304797</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>244.1351504444139</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>63.8487512925867</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11311,13 +11311,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627455</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,13 +11387,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>92.88803957954771</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>104.7567089243584</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23263,13 +23263,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G11" t="n">
         <v>414.7135041305339</v>
@@ -23278,7 +23278,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>5.676570512428896</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
@@ -23314,16 +23314,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>54.64744669222665</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>87.85547733525637</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23354,10 +23354,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>132.9224793013192</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>52.69092989335796</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
         <v>159.8772180037952</v>
@@ -23439,7 +23439,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>25.05329603616931</v>
       </c>
       <c r="R13" t="n">
         <v>165.4090611368575</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.7854164101485</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>264.6114226404857</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>5.940113393597471</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>144.8115322034633</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>106.4446432747563</v>
       </c>
       <c r="G16" t="n">
         <v>167.7266695472104</v>
@@ -23676,7 +23676,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>118.3540605547805</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>280.0041956463438</v>
       </c>
       <c r="I17" t="n">
         <v>187.7594695105699</v>
@@ -23788,13 +23788,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>95.14562117739528</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>104.123516118325</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I19" t="n">
-        <v>147.5019580580808</v>
+        <v>108.3071674310104</v>
       </c>
       <c r="J19" t="n">
         <v>74.67247646141476</v>
@@ -23946,16 +23946,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>186.7332506408623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5.853031707760522</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>393.2478662598748</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.92930538461383</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,19 +24104,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>163.2417127658761</v>
       </c>
     </row>
     <row r="22">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.7266695472104</v>
@@ -24150,7 +24150,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
@@ -24183,7 +24183,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>106.2262573958608</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>186.5148647619667</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0942155799726</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>339.2251984764974</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11.89148115178693</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24293,19 +24293,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>12.49277641978316</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>134.0822771319449</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>52.96246827112411</v>
       </c>
       <c r="I25" t="n">
         <v>147.5019580580808</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>99.59854825422809</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>76.3566213427676</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24539,10 +24539,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>28.31472128449184</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>22.05924664438194</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
         <v>159.8772180037952</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>179.6082486039199</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>250.5640488380478</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24700,7 +24700,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>116.6488403733308</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>132.9224793013194</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24770,10 +24770,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>75.77825856494154</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,7 +24885,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>219.4103988718534</v>
@@ -24897,16 +24897,16 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>240.662774394132</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.794905656366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G32" t="n">
         <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>269.7900031589803</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>5.853031707760465</v>
       </c>
     </row>
     <row r="33">
@@ -25001,22 +25001,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>60.69551596553768</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>71.11679827583583</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>94.36490978627249</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
-        <v>74.14019829714285</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
         <v>74.67247646141476</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>183.8383837321784</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,7 +25171,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>181.9162209527176</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
@@ -25210,7 +25210,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25241,19 +25241,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>118.9325319731696</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>210.7854599573488</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>9.474087561072508</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25371,7 +25371,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>94.36490978627251</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>164.3863007859655</v>
       </c>
       <c r="F38" t="n">
-        <v>18.27931997348793</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>42.32251517685427</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>202.7107073159006</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
         <v>165.4090611368575</v>
@@ -25605,19 +25605,19 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>250.5445655463113</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>179.6082486039199</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25678,25 +25678,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>108.9348709444844</v>
+        <v>2.226638972886519</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>143.9608282185178</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25715,19 +25715,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>219.6637720558645</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>67.45707340289908</v>
       </c>
       <c r="D43" t="n">
-        <v>109.4206823911421</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25842,7 +25842,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>233.5149117599847</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>129.4002286254162</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,22 +25946,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>30.64206626721523</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>71.11679827583617</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
-        <v>135.1502725434565</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J46" t="n">
         <v>74.67247646141476</v>
@@ -26073,7 +26073,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
-        <v>219.4103988718534</v>
+        <v>146.0486391109155</v>
       </c>
       <c r="T46" t="n">
         <v>226.8162656893113</v>
@@ -26082,7 +26082,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>463571.5037749598</v>
+        <v>463571.5037749595</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>463571.5037749598</v>
+        <v>463571.5037749595</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>463571.5037749599</v>
+        <v>463571.5037749597</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>463571.5037749599</v>
+        <v>463571.5037749595</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>463571.5037749595</v>
+        <v>463571.5037749598</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>463571.5037749598</v>
+        <v>463571.5037749597</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>463571.5037749597</v>
+        <v>463571.5037749594</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>463571.5037749598</v>
+        <v>463571.5037749595</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>309761.9007436797</v>
+        <v>309761.9007436794</v>
       </c>
       <c r="F2" t="n">
-        <v>309761.9007436795</v>
+        <v>309761.9007436796</v>
       </c>
       <c r="G2" t="n">
-        <v>309761.9007436796</v>
+        <v>309761.9007436794</v>
       </c>
       <c r="H2" t="n">
         <v>309761.9007436794</v>
       </c>
       <c r="I2" t="n">
-        <v>309761.9007436796</v>
+        <v>309761.9007436794</v>
       </c>
       <c r="J2" t="n">
-        <v>309761.9007436795</v>
+        <v>309761.9007436794</v>
       </c>
       <c r="K2" t="n">
-        <v>309761.9007436796</v>
+        <v>309761.9007436794</v>
       </c>
       <c r="L2" t="n">
-        <v>309761.9007436795</v>
+        <v>309761.9007436794</v>
       </c>
       <c r="M2" t="n">
         <v>309761.9007436796</v>
       </c>
       <c r="N2" t="n">
-        <v>309761.9007436794</v>
+        <v>309761.9007436797</v>
       </c>
       <c r="O2" t="n">
         <v>309761.9007436794</v>
       </c>
       <c r="P2" t="n">
-        <v>309761.9007436796</v>
+        <v>309761.9007436794</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252467</v>
+        <v>166940.1701252468</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244789</v>
+        <v>41050.69786244792</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>25938.22349556464</v>
+        <v>25938.22349556463</v>
       </c>
       <c r="F4" t="n">
         <v>25938.22349556464</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375757</v>
@@ -26487,7 +26487,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375757</v>
@@ -26502,10 +26502,10 @@
         <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="N5" t="n">
         <v>27864.35291375757</v>
-      </c>
-      <c r="N5" t="n">
-        <v>27864.35291375756</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161976.7870092171</v>
+        <v>161976.7870092173</v>
       </c>
       <c r="C6" t="n">
         <v>242746.2185407648</v>
       </c>
       <c r="D6" t="n">
-        <v>242746.2185407647</v>
+        <v>242746.2185407649</v>
       </c>
       <c r="E6" t="n">
-        <v>89019.15420911074</v>
+        <v>79174.55481573367</v>
       </c>
       <c r="F6" t="n">
-        <v>255959.3243343573</v>
+        <v>246114.7249409806</v>
       </c>
       <c r="G6" t="n">
-        <v>255959.3243343573</v>
+        <v>246114.7249409805</v>
       </c>
       <c r="H6" t="n">
-        <v>255959.3243343572</v>
+        <v>246114.7249409805</v>
       </c>
       <c r="I6" t="n">
-        <v>255959.3243343574</v>
+        <v>246114.7249409804</v>
       </c>
       <c r="J6" t="n">
-        <v>192899.3817352511</v>
+        <v>183054.7823418743</v>
       </c>
       <c r="K6" t="n">
-        <v>255959.3243343574</v>
+        <v>246114.7249409804</v>
       </c>
       <c r="L6" t="n">
-        <v>255959.3243343573</v>
+        <v>246114.7249409804</v>
       </c>
       <c r="M6" t="n">
-        <v>214908.6264719095</v>
+        <v>205064.0270785327</v>
       </c>
       <c r="N6" t="n">
-        <v>255959.3243343572</v>
+        <v>246114.7249409808</v>
       </c>
       <c r="O6" t="n">
-        <v>255959.3243343572</v>
+        <v>246114.7249409805</v>
       </c>
       <c r="P6" t="n">
-        <v>255959.3243343573</v>
+        <v>246114.7249409805</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="G3" t="n">
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192432</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>314.2067624875478</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>345.7144348824455</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27432,7 +27432,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27460,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>32.11365957875016</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>121.9685074809822</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,19 +27511,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27557,7 +27557,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27593,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,28 +27618,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>326.3696197612192</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27697,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>49.10816624057918</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>12.94441648182317</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>213.1087345205756</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>184.5364293760129</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>342.8322390905863</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>149.0741239708721</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>99.07228432480341</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>24.98494807699674</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I11" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M13" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L14" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971766</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864766</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177517</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044663</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118892</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I23" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J23" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M23" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N23" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T23" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,43 +32779,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H24" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I24" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K24" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O24" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R24" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H25" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J25" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L25" t="n">
         <v>39.29566048323129</v>
@@ -32882,7 +32882,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O25" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P25" t="n">
         <v>31.96707026225442</v>
@@ -32891,16 +32891,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>45.37675286849139</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>60.02388433300664</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>43.5421900459702</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>141.3237492791392</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P16" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
-        <v>116.0723750175074</v>
+        <v>19.83962944132484</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366292</v>
@@ -35983,7 +35983,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>124.8420549921024</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714792</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K23" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L23" t="n">
         <v>274.8802469209098</v>
@@ -36378,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>369.5327107537265</v>
+        <v>331.4139538013792</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L25" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M25" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N25" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>153.8813432790641</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M33" t="n">
-        <v>41.25328128569732</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
         <v>405.7415719969023</v>
@@ -37168,7 +37168,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37396,16 +37396,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>170.3630375661007</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37633,16 +37633,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900931</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
-        <v>87.03308673054588</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -38031,13 +38031,13 @@
         <v>313.0722467132387</v>
       </c>
       <c r="O44" t="n">
-        <v>249.9811662707763</v>
+        <v>249.9811662707764</v>
       </c>
       <c r="P44" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680312</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38107,13 +38107,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>43.54219004597032</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>30.98459604604517</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
         <v>110.3391532330937</v>
